--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_14_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_14_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53174.13725415018</v>
+        <v>10581653.31357588</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53174.13725415018</v>
+        <v>10581653.31357588</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189216977.808455</v>
+        <v>48831089.79166226</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9976.511962800849</v>
+        <v>1103458.559890672</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19130.69938952603</v>
+        <v>2078940.890214416</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28284.88681625119</v>
+        <v>3054423.220538162</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37876.38098639642</v>
+        <v>4050407.322957539</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47367.53899492548</v>
+        <v>5026424.5292153</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56858.69700345453</v>
+        <v>6002441.735473061</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66349.85501198357</v>
+        <v>6978458.941730818</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75841.01302051262</v>
+        <v>7954476.147988576</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85332.17102904168</v>
+        <v>8930493.354246331</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94823.32903757071</v>
+        <v>9906510.56050409</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104314.4870460998</v>
+        <v>10882527.76676185</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113404.1028255625</v>
+        <v>11840232.79200952</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122585.7396151262</v>
+        <v>12816249.99826729</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131767.3764046899</v>
+        <v>13792267.20452505</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140949.0131942537</v>
+        <v>14768284.41078282</v>
       </c>
     </row>
   </sheetData>
